--- a/grades3.xlsx
+++ b/grades3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\liaskentzou\saas25-27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8065005-3BD4-4178-B1CD-A99D19E1B992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D61C7BC-D6BA-4A6F-94DB-46E9988B7AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{721E483D-F02F-DA43-A7B8-6BF48DA94536}"/>
   </bookViews>
@@ -947,10 +947,10 @@
     <t>2024-2025 ΕΑΡ 2025</t>
   </si>
   <si>
-    <t>ΤΕΧΝΗΤΗ ΝΟΗΜΟΣΥΝΗ (3205) 2024-2025 Εαρινή</t>
-  </si>
-  <si>
-    <t>ΤΕΧΝΗΤΗ ΝΟΗΜΟΣΥΝΗ (3205)</t>
+    <t>ΤΕΧΝΗΤΗ ΝΟΗΜΟΣΥΝΗ (3208) 2024-2025 Εαρινή</t>
+  </si>
+  <si>
+    <t>ΤΕΧΝΗΤΗ ΝΟΗΜΟΣΥΝΗ (3208)</t>
   </si>
 </sst>
 </file>
@@ -1362,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72233FA6-2DFC-D042-BDFC-53B741AB089F}">
   <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="R93" sqref="R93"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="R83" sqref="R83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/grades3.xlsx
+++ b/grades3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrissfiris/Desktop/saas25-27-lia-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\liaskentzou\saas25-27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5531874D-8B6A-0042-AD19-455C3227B42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D61C7BC-D6BA-4A6F-94DB-46E9988B7AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15480" windowHeight="16020" xr2:uid="{721E483D-F02F-DA43-A7B8-6BF48DA94536}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{721E483D-F02F-DA43-A7B8-6BF48DA94536}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="305">
   <si>
     <t>Αριθμός Μητρώου</t>
   </si>
@@ -947,26 +947,17 @@
     <t>2024-2025 ΕΑΡ 2025</t>
   </si>
   <si>
-    <t>ΤΕΧΝΗΤΗ ΝΟΗΜΟΣΥΝΗ (3205) 2024-2025 Εαρινή</t>
-  </si>
-  <si>
-    <t>ΤΕΧΝΗΤΗ ΝΟΗΜΟΣΥΝΗ (3205)</t>
-  </si>
-  <si>
-    <t>ΣΦΥΡΗΣ ΧΑΡΗΣ</t>
-  </si>
-  <si>
-    <t>03121044</t>
-  </si>
-  <si>
-    <t>harris.sfiris@gmail.com</t>
+    <t>ΤΕΧΝΗΤΗ ΝΟΗΜΟΣΥΝΗ (3208) 2024-2025 Εαρινή</t>
+  </si>
+  <si>
+    <t>ΤΕΧΝΗΤΗ ΝΟΗΜΟΣΥΝΗ (3208)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -994,13 +985,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1019,11 +1003,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1039,14 +1022,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1379,36 +1360,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72233FA6-2DFC-D042-BDFC-53B741AB089F}">
-  <dimension ref="A1:R106"/>
+  <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="R83" sqref="R83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="18" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="20.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="2"/>
+    <col min="9" max="18" width="4.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1420,7 +1401,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1432,7 +1413,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1446,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1498,7 +1479,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1531,7 +1512,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1564,7 +1545,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1597,7 +1578,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1630,7 +1611,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1663,7 +1644,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1696,7 +1677,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1729,7 +1710,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1762,7 +1743,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1795,7 +1776,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1828,7 +1809,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -1861,7 +1842,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1894,7 +1875,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -1927,7 +1908,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,7 +1941,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1993,7 +1974,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -2026,7 +2007,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -2059,7 +2040,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
@@ -2092,7 +2073,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -2125,7 +2106,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -2158,7 +2139,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -2191,7 +2172,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
@@ -2224,7 +2205,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -2257,7 +2238,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
@@ -2290,7 +2271,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -2323,7 +2304,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
@@ -2356,7 +2337,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
@@ -2389,7 +2370,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -2422,7 +2403,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>94</v>
       </c>
@@ -2455,7 +2436,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>97</v>
       </c>
@@ -2488,7 +2469,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>100</v>
       </c>
@@ -2521,7 +2502,7 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
@@ -2554,7 +2535,7 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>106</v>
       </c>
@@ -2587,7 +2568,7 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>109</v>
       </c>
@@ -2620,7 +2601,7 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>112</v>
       </c>
@@ -2653,7 +2634,7 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>115</v>
       </c>
@@ -2686,7 +2667,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>118</v>
       </c>
@@ -2719,7 +2700,7 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>121</v>
       </c>
@@ -2752,7 +2733,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>124</v>
       </c>
@@ -2785,7 +2766,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>127</v>
       </c>
@@ -2818,7 +2799,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>130</v>
       </c>
@@ -2851,7 +2832,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>133</v>
       </c>
@@ -2884,7 +2865,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>136</v>
       </c>
@@ -2917,7 +2898,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>139</v>
       </c>
@@ -2950,7 +2931,7 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>142</v>
       </c>
@@ -2983,7 +2964,7 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>144</v>
       </c>
@@ -3016,7 +2997,7 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>147</v>
       </c>
@@ -3049,7 +3030,7 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>150</v>
       </c>
@@ -3082,7 +3063,7 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>153</v>
       </c>
@@ -3115,7 +3096,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>156</v>
       </c>
@@ -3148,7 +3129,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>158</v>
       </c>
@@ -3181,7 +3162,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>161</v>
       </c>
@@ -3214,7 +3195,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>164</v>
       </c>
@@ -3247,7 +3228,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>167</v>
       </c>
@@ -3280,7 +3261,7 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>170</v>
       </c>
@@ -3313,7 +3294,7 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>173</v>
       </c>
@@ -3346,7 +3327,7 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>176</v>
       </c>
@@ -3379,7 +3360,7 @@
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>179</v>
       </c>
@@ -3412,7 +3393,7 @@
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>182</v>
       </c>
@@ -3445,7 +3426,7 @@
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>184</v>
       </c>
@@ -3478,7 +3459,7 @@
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>187</v>
       </c>
@@ -3511,7 +3492,7 @@
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>190</v>
       </c>
@@ -3544,7 +3525,7 @@
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>193</v>
       </c>
@@ -3577,7 +3558,7 @@
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>196</v>
       </c>
@@ -3610,7 +3591,7 @@
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>199</v>
       </c>
@@ -3643,7 +3624,7 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>202</v>
       </c>
@@ -3676,7 +3657,7 @@
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>205</v>
       </c>
@@ -3709,7 +3690,7 @@
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>208</v>
       </c>
@@ -3742,7 +3723,7 @@
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>211</v>
       </c>
@@ -3775,7 +3756,7 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>214</v>
       </c>
@@ -3808,7 +3789,7 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>216</v>
       </c>
@@ -3841,7 +3822,7 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>219</v>
       </c>
@@ -3874,7 +3855,7 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>221</v>
       </c>
@@ -3907,7 +3888,7 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>224</v>
       </c>
@@ -3940,7 +3921,7 @@
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>226</v>
       </c>
@@ -3973,7 +3954,7 @@
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>229</v>
       </c>
@@ -4006,7 +3987,7 @@
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>231</v>
       </c>
@@ -4039,7 +4020,7 @@
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>234</v>
       </c>
@@ -4072,7 +4053,7 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>236</v>
       </c>
@@ -4105,7 +4086,7 @@
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>239</v>
       </c>
@@ -4138,7 +4119,7 @@
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>242</v>
       </c>
@@ -4171,7 +4152,7 @@
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>245</v>
       </c>
@@ -4204,7 +4185,7 @@
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>248</v>
       </c>
@@ -4237,7 +4218,7 @@
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>251</v>
       </c>
@@ -4270,7 +4251,7 @@
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>254</v>
       </c>
@@ -4303,7 +4284,7 @@
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>257</v>
       </c>
@@ -4336,7 +4317,7 @@
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>260</v>
       </c>
@@ -4369,7 +4350,7 @@
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>263</v>
       </c>
@@ -4402,7 +4383,7 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>266</v>
       </c>
@@ -4435,7 +4416,7 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>268</v>
       </c>
@@ -4468,7 +4449,7 @@
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>271</v>
       </c>
@@ -4501,7 +4482,7 @@
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>274</v>
       </c>
@@ -4534,7 +4515,7 @@
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>277</v>
       </c>
@@ -4567,7 +4548,7 @@
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>279</v>
       </c>
@@ -4600,7 +4581,7 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>282</v>
       </c>
@@ -4633,7 +4614,7 @@
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>285</v>
       </c>
@@ -4666,7 +4647,7 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>288</v>
       </c>
@@ -4699,7 +4680,7 @@
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>291</v>
       </c>
@@ -4732,7 +4713,7 @@
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>294</v>
       </c>
@@ -4765,7 +4746,7 @@
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>296</v>
       </c>
@@ -4798,7 +4779,7 @@
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>299</v>
       </c>
@@ -4831,37 +4812,11 @@
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D106" t="s">
-        <v>302</v>
-      </c>
-      <c r="E106" t="s">
-        <v>304</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="1">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C106" r:id="rId1" xr:uid="{7E61AAA4-F61D-1B45-BA0D-D274B297BEC9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>